--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Sort1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.43375355341894</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H2">
-        <v>1.43375355341894</v>
+        <v>0.116576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01924839521029073</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01924839521029073</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.3576923313778</v>
+        <v>4.358929333333333</v>
       </c>
       <c r="N2">
-        <v>3.3576923313778</v>
+        <v>13.076788</v>
       </c>
       <c r="O2">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="P2">
-        <v>0.2770806029879332</v>
+        <v>0.315486934607403</v>
       </c>
       <c r="Q2">
-        <v>4.814103311400446</v>
+        <v>0.1693821819875556</v>
       </c>
       <c r="R2">
-        <v>4.814103311400446</v>
+        <v>1.524439637888</v>
       </c>
       <c r="S2">
-        <v>0.2770806029879332</v>
+        <v>0.00607261720100644</v>
       </c>
       <c r="T2">
-        <v>0.2770806029879332</v>
+        <v>0.006072617201006441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -593,49 +593,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.43375355341894</v>
+        <v>0.03885866666666667</v>
       </c>
       <c r="H3">
-        <v>1.43375355341894</v>
+        <v>0.116576</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01924839521029073</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01924839521029073</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.74885430653512</v>
+        <v>1.781382333333333</v>
       </c>
       <c r="N3">
-        <v>1.74885430653512</v>
+        <v>5.344147</v>
       </c>
       <c r="O3">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="P3">
-        <v>0.1443174531699735</v>
+        <v>0.1289313977653647</v>
       </c>
       <c r="Q3">
-        <v>2.507426076406745</v>
+        <v>0.06922214229688889</v>
       </c>
       <c r="R3">
-        <v>2.507426076406745</v>
+        <v>0.6229992806719999</v>
       </c>
       <c r="S3">
-        <v>0.1443174531699735</v>
+        <v>0.002481722499202936</v>
       </c>
       <c r="T3">
-        <v>0.1443174531699735</v>
+        <v>0.002481722499202936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,247 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.03885866666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.116576</v>
+      </c>
+      <c r="I4">
+        <v>0.01924839521029073</v>
+      </c>
+      <c r="J4">
+        <v>0.01924839521029073</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>7.676201333333334</v>
+      </c>
+      <c r="N4">
+        <v>23.028604</v>
+      </c>
+      <c r="O4">
+        <v>0.5555816676272323</v>
+      </c>
+      <c r="P4">
+        <v>0.5555816676272323</v>
+      </c>
+      <c r="Q4">
+        <v>0.2982869488782223</v>
+      </c>
+      <c r="R4">
+        <v>2.684582539904</v>
+      </c>
+      <c r="S4">
+        <v>0.01069405551008135</v>
+      </c>
+      <c r="T4">
+        <v>0.01069405551008135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.43375355341894</v>
-      </c>
-      <c r="H4">
-        <v>1.43375355341894</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>7.01156013379793</v>
-      </c>
-      <c r="N4">
-        <v>7.01156013379793</v>
-      </c>
-      <c r="O4">
-        <v>0.5786019438420932</v>
-      </c>
-      <c r="P4">
-        <v>0.5786019438420932</v>
-      </c>
-      <c r="Q4">
-        <v>10.05284925684336</v>
-      </c>
-      <c r="R4">
-        <v>10.05284925684336</v>
-      </c>
-      <c r="S4">
-        <v>0.5786019438420932</v>
-      </c>
-      <c r="T4">
-        <v>0.5786019438420932</v>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.979941666666667</v>
+      </c>
+      <c r="H5">
+        <v>5.939825</v>
+      </c>
+      <c r="I5">
+        <v>0.9807516047897092</v>
+      </c>
+      <c r="J5">
+        <v>0.9807516047897092</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>4.358929333333333</v>
+      </c>
+      <c r="N5">
+        <v>13.076788</v>
+      </c>
+      <c r="O5">
+        <v>0.315486934607403</v>
+      </c>
+      <c r="P5">
+        <v>0.315486934607403</v>
+      </c>
+      <c r="Q5">
+        <v>8.630425809122222</v>
+      </c>
+      <c r="R5">
+        <v>77.67383228210001</v>
+      </c>
+      <c r="S5">
+        <v>0.3094143174063965</v>
+      </c>
+      <c r="T5">
+        <v>0.3094143174063966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.979941666666667</v>
+      </c>
+      <c r="H6">
+        <v>5.939825</v>
+      </c>
+      <c r="I6">
+        <v>0.9807516047897092</v>
+      </c>
+      <c r="J6">
+        <v>0.9807516047897092</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.781382333333333</v>
+      </c>
+      <c r="N6">
+        <v>5.344147</v>
+      </c>
+      <c r="O6">
+        <v>0.1289313977653647</v>
+      </c>
+      <c r="P6">
+        <v>0.1289313977653647</v>
+      </c>
+      <c r="Q6">
+        <v>3.527033106030555</v>
+      </c>
+      <c r="R6">
+        <v>31.743297954275</v>
+      </c>
+      <c r="S6">
+        <v>0.1264496752661618</v>
+      </c>
+      <c r="T6">
+        <v>0.1264496752661618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.979941666666667</v>
+      </c>
+      <c r="H7">
+        <v>5.939825</v>
+      </c>
+      <c r="I7">
+        <v>0.9807516047897092</v>
+      </c>
+      <c r="J7">
+        <v>0.9807516047897092</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.676201333333334</v>
+      </c>
+      <c r="N7">
+        <v>23.028604</v>
+      </c>
+      <c r="O7">
+        <v>0.5555816676272323</v>
+      </c>
+      <c r="P7">
+        <v>0.5555816676272323</v>
+      </c>
+      <c r="Q7">
+        <v>15.19843086158889</v>
+      </c>
+      <c r="R7">
+        <v>136.7858777543</v>
+      </c>
+      <c r="S7">
+        <v>0.5448876121171509</v>
+      </c>
+      <c r="T7">
+        <v>0.5448876121171509</v>
       </c>
     </row>
   </sheetData>
